--- a/data/origin/customer_origin.xlsx
+++ b/data/origin/customer_origin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/work/KOSA_mini_project1/data/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D62D75-E1B5-084C-A6FD-14D8C792566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389E730-98AB-D646-93F8-14461B79AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{924B6D1C-0F7C-DA4E-95C0-D52DB869FE0C}"/>
   </bookViews>
@@ -38,20 +38,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>강수정</t>
-  </si>
-  <si>
-    <t>수정</t>
-  </si>
-  <si>
-    <r>
-      <t>서울특별시</t>
+    <t>test1@example.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>honggd</t>
+  </si>
+  <si>
+    <r>
+      <t>서울시</t>
     </r>
     <r>
       <rPr>
@@ -72,11 +72,27 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>마포구</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>강남구</t>
+    </r>
+  </si>
+  <si>
+    <t>test2@example.com</t>
+  </si>
+  <si>
+    <t>P@ssword123</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <t>chulsoo</t>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
@@ -86,62 +102,102 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Apple SD Gothic Neo"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>성암로</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>성남시</t>
+    </r>
+  </si>
+  <si>
+    <t>test3@example.com</t>
+  </si>
+  <si>
+    <t>MyPwd#5678</t>
+  </si>
+  <si>
+    <t>이영희</t>
+  </si>
+  <si>
+    <t>yeonghee</t>
+  </si>
+  <si>
+    <r>
+      <t>인천시</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 189 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Apple SD Gothic Neo"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>상암동</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>남구</t>
+    </r>
+  </si>
+  <si>
+    <t>test4@example.com</t>
+  </si>
+  <si>
+    <t>Secret@9876</t>
+  </si>
+  <si>
+    <t>박민수</t>
+  </si>
+  <si>
+    <t>minsu</t>
+  </si>
+  <si>
+    <r>
+      <t>대구광역시</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>def@gmail.com</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>윤시호</t>
-  </si>
-  <si>
-    <t>시호</t>
-  </si>
-  <si>
-    <r>
-      <t>서울특별시</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+  </si>
+  <si>
+    <t>test5@example.com</t>
+  </si>
+  <si>
+    <t>Password!2023</t>
+  </si>
+  <si>
+    <t>최영자</t>
+  </si>
+  <si>
+    <t>youngja</t>
+  </si>
+  <si>
+    <r>
+      <t>부산시</t>
     </r>
     <r>
       <rPr>
@@ -160,321 +216,15 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>마포구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성암로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 190 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상암동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>ghi@gmail.com</t>
-  </si>
-  <si>
-    <t>ghi</t>
-  </si>
-  <si>
-    <t>심다은</t>
-  </si>
-  <si>
-    <t>다은</t>
-  </si>
-  <si>
-    <r>
-      <t>서울특별시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마포구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성암로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 191 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상암동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>jkl@gmail.com</t>
-  </si>
-  <si>
-    <t>jkl</t>
-  </si>
-  <si>
-    <t>하재민</t>
-  </si>
-  <si>
-    <t>재민</t>
-  </si>
-  <si>
-    <r>
-      <t>서울특별시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마포구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성암로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 192 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상암동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>mno@gmail.com</t>
-  </si>
-  <si>
-    <t>mno</t>
-  </si>
-  <si>
-    <t>문희진</t>
-  </si>
-  <si>
-    <t>희진</t>
-  </si>
-  <si>
-    <r>
-      <t>서울특별시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마포구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성암로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 193 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상암동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>동래구</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,12 +276,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -893,15 +637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF5CFFE-1C4A-8845-920B-7BC2339C6AB3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -914,17 +658,20 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -937,17 +684,20 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -960,17 +710,20 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -983,17 +736,20 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1006,24 +762,27 @@
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="mailto:abc@gmail.com" xr:uid="{0173EFA0-024E-9B42-AF5E-370B73BB2B2B}"/>
-    <hyperlink ref="B2" r:id="rId2" display="mailto:def@gmail.com" xr:uid="{C68A1376-B454-0144-BE0A-759A32F98873}"/>
-    <hyperlink ref="B3" r:id="rId3" display="mailto:ghi@gmail.com" xr:uid="{ADE560D6-D7EF-7940-B996-8BFA69789574}"/>
-    <hyperlink ref="B4" r:id="rId4" display="mailto:jkl@gmail.com" xr:uid="{F21E7EE1-6997-5D4F-933D-64398DD26909}"/>
-    <hyperlink ref="B5" r:id="rId5" display="mailto:mno@gmail.com" xr:uid="{090D7F6F-9690-8F4C-A8E6-CE05C62FB24B}"/>
+    <hyperlink ref="B1" r:id="rId1" display="mailto:test1@example.com" xr:uid="{604FAD6C-1F22-A84A-A25B-A37762FA3C14}"/>
+    <hyperlink ref="B2" r:id="rId2" display="mailto:test2@example.com" xr:uid="{3730567E-731A-CF4B-8ED6-689147AE7EAC}"/>
+    <hyperlink ref="B3" r:id="rId3" display="mailto:test3@example.com" xr:uid="{ED2F971A-1E5D-F240-B0E2-7F402E2E0781}"/>
+    <hyperlink ref="B4" r:id="rId4" display="mailto:test4@example.com" xr:uid="{55CBC61C-F776-7B4F-8420-ECC8B6A9862E}"/>
+    <hyperlink ref="B5" r:id="rId5" display="mailto:test5@example.com" xr:uid="{057248E4-0C12-AD47-B7FC-D32E73BDDE79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
